--- a/firmware/dataset.xlsx
+++ b/firmware/dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ARI DATA D\KULIAH\SKRIPSI\PROJECT SKRIPSI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\source\caktin_ws\025-011-Intan\firmware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDA977C-896C-4A69-9CBB-EFDBBDAE857C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153B5D2B-16C8-43B7-9227-6BEFC97E341F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1D93240E-CEC4-435C-8498-0D9D5D108A0B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{1D93240E-CEC4-435C-8498-0D9D5D108A0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,13 +90,13 @@
     <t>Gizi Kurang</t>
   </si>
   <si>
-    <t>Risiko Gizi Lebih</t>
+    <t>Overweight</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -163,7 +163,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{219427E3-DBC1-465C-8407-D7D00A4F1E0D}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -474,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA6EF2E-84AE-4E35-AFF6-F40A809FD595}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L115" sqref="L115"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
